--- a/biology/Médecine/Theodor_Karl_Gustav_von_Leber/Theodor_Karl_Gustav_von_Leber.xlsx
+++ b/biology/Médecine/Theodor_Karl_Gustav_von_Leber/Theodor_Karl_Gustav_von_Leber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Theodor Karl Gustav von Leber, né le 29 février 1840 à  Karlsruhe et mort le 17 avril 1917 à Heidelberg, est un ophtalmologiste badois .
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un professeur de langue de Karlsruhe, et plutôt attiré par la chimie, il est conseillé par le professeur Robert Wilhelm Bunsen  de s'orienter vers la médecine en raison du grand nombre d'étudiants en chimie.
 Il fut un assistant du professeur d'ophtalmologie Albrecht Friedrich Wilhelm Ernst von Graefe  entre 1867 et 1870. Entre 1890 et 1910, il fut le directeur de la clinique ophtalmologie d'Heidelberg.
@@ -543,7 +557,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Son nom a été donnée à plusieurs maladies qu'il a décrit :
 Amaurose congénitale de Leber
